--- a/biology/Botanique/Mercuriale_annuelle/Mercuriale_annuelle.xlsx
+++ b/biology/Botanique/Mercuriale_annuelle/Mercuriale_annuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercurialis annua
 La Mercuriale annuelle (Mercurialis annua), « Foirolle », « Ramberge », « Vignette », est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante herbacée adventice commune des cultures. Son pollen, d'une taille de 20 µm environ, est susceptible d'être allergène pour les personnes sensibles (indice d'allergénicité : 0/5).
@@ -513,9 +525,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En gallo, elle est appelée « ramberge », « remberge », « rimberge » ou encore « aremberge »[réf. nécessaire]. En Picardie, dans le Nord, en Artois et en Franche-Comté, elle est appelée « caquenlit »[1],[2]. On trouve aussi [Où ?] les noms « chou de chien », « foiraude », « foirole » et « ortie bâtarde »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En gallo, elle est appelée « ramberge », « remberge », « rimberge » ou encore « aremberge »[réf. nécessaire]. En Picardie, dans le Nord, en Artois et en Franche-Comté, elle est appelée « caquenlit »,. On trouve aussi [Où ?] les noms « chou de chien », « foiraude », « foirole » et « ortie bâtarde ».
 </t>
         </is>
       </c>
@@ -544,13 +558,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez basse (10 à 50 cm de haut), glabre, à feuilles pointues et dentées avec une racine pivotante.
 La tige est herbacée, rameuse et feuillée dès la base, les feuilles sont d'un vert clair, molles, ciliées, pétiolées, ovales ou ovales-lancéolées, lâchement crénelées-dentées, ordinairement arrondies à la base.
 Les fleurs mâles sont en glomérules formant un épi assez long, les femelles sont solitaires et subsessiles. Les capsules sont larges de 3-4 mm, hispides à poils épaissis à la base 
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mercuriale_annuelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mercuriale_annuelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : vert
 Période de floraison : mai-décembre
 Inflorescence : mâle : épis - femelle : groupement
@@ -567,33 +618,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mercuriale_annuelle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mercuriale_annuelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Utilisation en recherche scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mercurialis annua est utilisée dans la recherche sur l’expression des caractères sexuels et l’évolution de la dioécie. Bien que cette plante soit dioïque, certains individus nommés « leaky » peuvent occasionnellement former des organes reproducteurs du sexe opposé. Cette propriété des Mercurialis annua a été exploitée dans une étude publiée en 2021 : des individus femelles ont été placés dans des populations sans aucun mâle. Grâce à la présence de femelles « leaky » produisant du pollen, les plantes ont pu être fécondées et produire ainsi des graines qui ont été replantées le printemps suivant. Après 4 générations, la production moyenne de pollen par les femelles a été multipliée par 23. De plus, les plantes ont évolué la capacité de s’autoféconder partiellement. De telles adaptations sont particulièrement avantageuses dans des conditions où la reproduction avec des mâles n’est pas favorisée, comme en cas de colonisation ou de basse densité de population. Ces résultats démontrent qu’une transition rapide de la dioécie vers de l’hermaphroditisme est possible[3],[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mercurialis annua est utilisée dans la recherche sur l’expression des caractères sexuels et l’évolution de la dioécie. Bien que cette plante soit dioïque, certains individus nommés « leaky » peuvent occasionnellement former des organes reproducteurs du sexe opposé. Cette propriété des Mercurialis annua a été exploitée dans une étude publiée en 2021 : des individus femelles ont été placés dans des populations sans aucun mâle. Grâce à la présence de femelles « leaky » produisant du pollen, les plantes ont pu être fécondées et produire ainsi des graines qui ont été replantées le printemps suivant. Après 4 générations, la production moyenne de pollen par les femelles a été multipliée par 23. De plus, les plantes ont évolué la capacité de s’autoféconder partiellement. De telles adaptations sont particulièrement avantageuses dans des conditions où la reproduction avec des mâles n’est pas favorisée, comme en cas de colonisation ou de basse densité de population. Ces résultats démontrent qu’une transition rapide de la dioécie vers de l’hermaphroditisme est possible,.</t>
         </is>
       </c>
     </row>
